--- a/datafiles/testExcel.xlsx
+++ b/datafiles/testExcel.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1adc8983e7d2f985/Desktop/jdbcSqlAssignment/javaSQLAssignment/datafiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{10611507-685C-41FB-8D4E-5A06006E3176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAAA374D-E06D-426B-9703-FE1C97B1BA42}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{10611507-685C-41FB-8D4E-5A06006E3176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42E802A1-0B43-4B5A-AF2F-D5AF658075D3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D3F4BB21-ED95-4DC8-A615-A0157D0929A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="test" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>kjk</t>
+  </si>
+  <si>
+    <t>age</t>
   </si>
 </sst>
 </file>
@@ -218,6 +221,10 @@
 </file>
 
 <file path=xl/persons/person12.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person13.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -549,6 +556,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84072F41-3FC0-44F5-A218-8791CB4C2821}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D711F775-1E84-459F-98D1-DDF337699EFE}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -662,184 +754,114 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84072F41-3FC0-44F5-A218-8791CB4C2821}">
-  <dimension ref="A1:D5"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E8DF13-E12F-4836-8247-647628408B8A}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E8DF13-E12F-4836-8247-647628408B8A}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
       <c r="E5" t="s">
         <v>31</v>
+      </c>
+      <c r="F5">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
